--- a/note.xlsx
+++ b/note.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t>View</t>
   </si>
@@ -1869,6 +1869,18 @@
   </si>
   <si>
     <t xml:space="preserve">So, /admin/home-normal will placed in Middleware\RedirectIfAuthenticated </t>
+  </si>
+  <si>
+    <t>http://www.tutorials.kode-blog.com/laravel-5-custom-helper</t>
+  </si>
+  <si>
+    <t>Create my service provider (or helper)</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>When see: use Request; (use without full path) --&gt; refer to alias in config\app</t>
   </si>
 </sst>
 </file>
@@ -2331,15 +2343,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E79"/>
+  <dimension ref="B2:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="82.28515625" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
@@ -2760,67 +2772,80 @@
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>32</v>
-      </c>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>36</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>37</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2831,9 +2856,10 @@
     <hyperlink ref="E9" r:id="rId3"/>
     <hyperlink ref="D36" r:id="rId4"/>
     <hyperlink ref="C63" r:id="rId5"/>
+    <hyperlink ref="E68" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2841,7 +2867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/note.xlsx
+++ b/note.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7755"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>View</t>
   </si>
@@ -1881,6 +1881,12 @@
   </si>
   <si>
     <t>When see: use Request; (use without full path) --&gt; refer to alias in config\app</t>
+  </si>
+  <si>
+    <t>TokenMismatch</t>
+  </si>
+  <si>
+    <t>add VerifyCsrfToken::except</t>
   </si>
 </sst>
 </file>
@@ -2345,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -2865,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,6 +3053,14 @@
       </c>
       <c r="C33" s="15" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
